--- a/xlsx/淘金潮_intext.xlsx
+++ b/xlsx/淘金潮_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>政策_政策_加州_淘金潮</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91</t>
   </si>
   <si>
-    <t>黃金</t>
+    <t>黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E6%B7%98%E9%87%91%E6%BD%AE</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>傳播媒體</t>
+    <t>传播媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Levi%27s</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>人口統計學</t>
+    <t>人口统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1</t>
   </si>
   <si>
-    <t>廣東</t>
+    <t>广东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E6%AD%8C%E6%9B%B2</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%95%E6%8B%89%E5%A5%91%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>阿帕拉契山脈</t>
+    <t>阿帕拉契山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>英屬哥倫比亞</t>
+    <t>英属哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E6%B2%99%E6%B2%B3</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%A1%94%E5%93%A5</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A5%A7%E5%A1%94%E5%93%A5%E6%B7%98%E9%87%91%E6%BD%AE</t>
   </si>
   <si>
-    <t>中奧塔哥淘金潮</t>
+    <t>中奥塔哥淘金潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>俄勒岡州</t>
+    <t>俄勒冈州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波爾戰爭</t>
+    <t>波尔战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
